--- a/lots.xlsx
+++ b/lots.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Numéro du Lot</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>LOT-000007</t>
+  </si>
+  <si>
+    <t>LOT-000008</t>
   </si>
   <si>
     <t>lsjf</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -509,13 +512,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -532,13 +535,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -555,13 +558,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>44</v>
@@ -578,13 +581,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -601,13 +604,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>55</v>
@@ -624,13 +627,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -647,13 +650,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -670,13 +673,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -693,13 +696,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -716,13 +719,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -732,6 +735,29 @@
       </c>
       <c r="G12">
         <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/lots.xlsx
+++ b/lots.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Numéro du Lot</t>
   </si>
@@ -61,6 +61,9 @@
     <t>LOT-000008</t>
   </si>
   <si>
+    <t>LOT-000009</t>
+  </si>
+  <si>
     <t>lsjf</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
   </si>
   <si>
     <t>test44</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>Recto</t>
@@ -455,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -512,13 +521,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -535,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -558,13 +567,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>44</v>
@@ -581,13 +590,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -604,13 +613,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>55</v>
@@ -627,13 +636,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -650,13 +659,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -673,13 +682,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -696,13 +705,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -719,13 +728,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -742,13 +751,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -758,6 +767,52 @@
       </c>
       <c r="G13">
         <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
